--- a/siren_data.xlsx
+++ b/siren_data.xlsx
@@ -5,27 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liesl\Documents\misc. writing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liesl\Documents\Data_viz_fun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54595856-2F03-4DBA-A3F6-8C216075C7B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7643204-C863-4217-84BF-7BEFBC6FEED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -51,9 +59,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Cop</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -66,9 +71,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Sherrif</t>
-  </si>
-  <si>
     <t>Pulled someone over right in fron of the Apt</t>
   </si>
   <si>
@@ -84,28 +86,34 @@
     <t>Vehicle</t>
   </si>
   <si>
-    <t>Bike</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>Ambulance</t>
-  </si>
-  <si>
     <t>SUV</t>
   </si>
   <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Truck</t>
-  </si>
-  <si>
     <t>Stopped outside apt on Garfield cleaning door handles</t>
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>cop</t>
+  </si>
+  <si>
+    <t>sheriff</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>ambulance</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>truck</t>
   </si>
 </sst>
 </file>
@@ -141,10 +149,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,15 +434,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -453,13 +463,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -476,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -499,13 +509,13 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -522,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -542,16 +552,16 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -565,16 +575,16 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -588,16 +598,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -608,19 +618,19 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -631,22 +641,22 @@
         <v>0.44930555555555557</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -657,22 +667,22 @@
         <v>0.45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -683,22 +693,22 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -709,19 +719,19 @@
         <v>0.45694444444444443</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -732,19 +742,19 @@
         <v>0.45694444444444443</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -761,13 +771,13 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -784,13 +794,13 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -801,19 +811,19 @@
         <v>0.37013888888888885</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -824,19 +834,19 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -847,19 +857,19 @@
         <v>0.42986111111111108</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -876,13 +886,13 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -899,13 +909,13 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -922,13 +932,13 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -942,19 +952,19 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -968,16 +978,16 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -988,19 +998,19 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1011,19 +1021,19 @@
         <v>0.48125000000000001</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1037,17 +1047,43 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
